--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3995.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3995.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.359813877616178</v>
+        <v>1.259004950523376</v>
       </c>
       <c r="B1">
-        <v>2.543484211736934</v>
+        <v>2.954211473464966</v>
       </c>
       <c r="C1">
-        <v>3.379951834112891</v>
+        <v>6.191031455993652</v>
       </c>
       <c r="D1">
-        <v>4.007397457787619</v>
+        <v>4.909485816955566</v>
       </c>
       <c r="E1">
-        <v>1.628184253478799</v>
+        <v>1.240481734275818</v>
       </c>
     </row>
   </sheetData>
